--- a/brasileirao/arq_backup/partidas.xlsx
+++ b/brasileirao/arq_backup/partidas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\git\brasileirao\brasileirao\src\arquivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Desktop\trabalhoNovo\brasileirao\arq_backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,13 +29,7 @@
     <t>Palmeiras</t>
   </si>
   <si>
-    <t>Atlético-MG</t>
-  </si>
-  <si>
     <t>Fluminense</t>
-  </si>
-  <si>
-    <t>São Paulo</t>
   </si>
   <si>
     <t>Botafogo</t>
@@ -47,16 +41,7 @@
     <t>Fortaleza</t>
   </si>
   <si>
-    <t>Atlético-GO</t>
-  </si>
-  <si>
-    <t>Avaí</t>
-  </si>
-  <si>
     <t>Coritiba</t>
-  </si>
-  <si>
-    <t>América-MG</t>
   </si>
   <si>
     <t>Flamengo</t>
@@ -74,15 +59,6 @@
     <t>Internacional</t>
   </si>
   <si>
-    <t>Ceará</t>
-  </si>
-  <si>
-    <t>Goiás</t>
-  </si>
-  <si>
-    <t>Cuiabá</t>
-  </si>
-  <si>
     <t>Athletico-PR</t>
   </si>
   <si>
@@ -90,6 +66,30 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>Atletico-MG</t>
+  </si>
+  <si>
+    <t>Atletico-GO</t>
+  </si>
+  <si>
+    <t>Sao Paulo</t>
+  </si>
+  <si>
+    <t>Avai</t>
+  </si>
+  <si>
+    <t>Ceara</t>
+  </si>
+  <si>
+    <t>Cuiaba</t>
+  </si>
+  <si>
+    <t>America-MG</t>
+  </si>
+  <si>
+    <t>Goias</t>
   </si>
 </sst>
 </file>
@@ -188,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -269,11 +269,29 @@
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="132">
+  <dxfs count="134">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1476,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G151" sqref="G151"/>
+    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="J227" sqref="J227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C1" s="15">
         <v>2</v>
@@ -1501,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G1" s="21">
         <v>10</v>
@@ -1542,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="15">
         <v>0</v>
@@ -1551,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G2" s="21">
         <v>1000</v>
@@ -1592,7 +1610,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C3" s="15">
         <v>4</v>
@@ -1601,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G3" s="21">
         <v>28</v>
@@ -1651,10 +1669,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G4" s="21">
         <v>40</v>
@@ -1692,7 +1710,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="15">
         <v>1</v>
@@ -1701,10 +1719,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G5" s="21">
         <v>163</v>
@@ -1742,7 +1760,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="15">
         <v>2</v>
@@ -1751,10 +1769,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G6" s="21">
         <v>59</v>
@@ -1792,7 +1810,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" s="15">
         <v>0</v>
@@ -1801,10 +1819,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G7" s="21">
         <v>184</v>
@@ -1842,7 +1860,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C8" s="15">
         <v>1</v>
@@ -1851,10 +1869,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G8" s="21">
         <v>85</v>
@@ -1892,7 +1910,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C9" s="15">
         <v>1</v>
@@ -1901,10 +1919,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G9" s="21">
         <v>97</v>
@@ -1942,7 +1960,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10" s="15">
         <v>3</v>
@@ -1951,10 +1969,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G10" s="21">
         <v>106</v>
@@ -1992,7 +2010,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C11" s="16">
         <v>4</v>
@@ -2001,10 +2019,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G11" s="22">
         <v>7</v>
@@ -2042,7 +2060,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C12" s="16">
         <v>3</v>
@@ -2051,10 +2069,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G12" s="22">
         <v>194</v>
@@ -2092,7 +2110,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C13" s="16">
         <v>4</v>
@@ -2101,10 +2119,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G13" s="22">
         <v>170</v>
@@ -2142,7 +2160,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C14" s="16">
         <v>3</v>
@@ -2151,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G14" s="22">
         <v>161</v>
@@ -2192,7 +2210,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C15" s="16">
         <v>2</v>
@@ -2201,10 +2219,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G15" s="22">
         <v>129</v>
@@ -2242,7 +2260,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C16" s="16">
         <v>2</v>
@@ -2251,10 +2269,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G16" s="22">
         <v>119</v>
@@ -2292,7 +2310,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="16">
         <v>1</v>
@@ -2301,10 +2319,10 @@
         <v>3</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G17" s="22">
         <v>152</v>
@@ -2342,7 +2360,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C18" s="16">
         <v>1</v>
@@ -2354,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G18" s="22">
         <v>219</v>
@@ -2392,7 +2410,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="16">
         <v>0</v>
@@ -2401,10 +2419,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G19" s="22">
         <v>19</v>
@@ -2442,7 +2460,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C20" s="16">
         <v>0</v>
@@ -2451,10 +2469,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G20" s="22">
         <v>9</v>
@@ -2492,7 +2510,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C21" s="15">
         <v>2</v>
@@ -2501,10 +2519,10 @@
         <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G21" s="21">
         <v>5</v>
@@ -2542,7 +2560,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="15">
         <v>0</v>
@@ -2551,10 +2569,10 @@
         <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G22" s="21">
         <v>117</v>
@@ -2592,7 +2610,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C23" s="15">
         <v>1</v>
@@ -2601,10 +2619,10 @@
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G23" s="21">
         <v>175</v>
@@ -2651,10 +2669,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G24" s="21">
         <v>40</v>
@@ -2692,7 +2710,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C25" s="15">
         <v>3</v>
@@ -2701,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G25" s="21">
         <v>129</v>
@@ -2742,7 +2760,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26" s="15">
         <v>0</v>
@@ -2751,10 +2769,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G26" s="21">
         <v>186</v>
@@ -2792,7 +2810,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" s="15">
         <v>0</v>
@@ -2801,10 +2819,10 @@
         <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G27" s="21">
         <v>151</v>
@@ -2842,7 +2860,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C28" s="15">
         <v>1</v>
@@ -2851,10 +2869,10 @@
         <v>1</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G28" s="21">
         <v>86</v>
@@ -2892,7 +2910,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C29" s="15">
         <v>3</v>
@@ -2901,10 +2919,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G29" s="21">
         <v>95</v>
@@ -2942,7 +2960,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C30" s="15">
         <v>1</v>
@@ -2951,10 +2969,10 @@
         <v>0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G30" s="21">
         <v>141</v>
@@ -2992,7 +3010,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C31" s="16">
         <v>1</v>
@@ -3001,10 +3019,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G31" s="22">
         <v>5</v>
@@ -3042,7 +3060,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C32" s="16">
         <v>0</v>
@@ -3054,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G32" s="22">
         <v>1000</v>
@@ -3092,7 +3110,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C33" s="16">
         <v>2</v>
@@ -3101,10 +3119,10 @@
         <v>1</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G33" s="22">
         <v>30</v>
@@ -3142,7 +3160,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C34" s="16">
         <v>1</v>
@@ -3151,10 +3169,10 @@
         <v>0</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G34" s="22">
         <v>161</v>
@@ -3192,7 +3210,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35" s="16">
         <v>1</v>
@@ -3201,10 +3219,10 @@
         <v>1</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G35" s="22">
         <v>51</v>
@@ -3242,7 +3260,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C36" s="16">
         <v>0</v>
@@ -3251,10 +3269,10 @@
         <v>0</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G36" s="22">
         <v>1000</v>
@@ -3292,7 +3310,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C37" s="16">
         <v>0</v>
@@ -3301,10 +3319,10 @@
         <v>1</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G37" s="22">
         <v>174</v>
@@ -3342,7 +3360,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C38" s="16">
         <v>2</v>
@@ -3351,10 +3369,10 @@
         <v>2</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G38" s="22">
         <v>216</v>
@@ -3392,7 +3410,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C39" s="16">
         <v>1</v>
@@ -3401,10 +3419,10 @@
         <v>1</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G39" s="22">
         <v>185</v>
@@ -3442,7 +3460,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C40" s="16">
         <v>3</v>
@@ -3451,10 +3469,10 @@
         <v>2</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G40" s="22">
         <v>107</v>
@@ -3492,7 +3510,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C41" s="15">
         <v>1</v>
@@ -3501,10 +3519,10 @@
         <v>2</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G41" s="21">
         <v>6</v>
@@ -3542,7 +3560,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C42" s="15">
         <v>0</v>
@@ -3551,10 +3569,10 @@
         <v>1</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G42" s="21">
         <v>52</v>
@@ -3592,7 +3610,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C43" s="15">
         <v>0</v>
@@ -3601,10 +3619,10 @@
         <v>1</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G43" s="21">
         <v>164</v>
@@ -3651,10 +3669,10 @@
         <v>1</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G44" s="21">
         <v>42</v>
@@ -3692,7 +3710,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C45" s="15">
         <v>4</v>
@@ -3701,10 +3719,10 @@
         <v>1</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G45" s="21">
         <v>127</v>
@@ -3742,7 +3760,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C46" s="15">
         <v>1</v>
@@ -3751,10 +3769,10 @@
         <v>1</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G46" s="21">
         <v>63</v>
@@ -3792,7 +3810,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C47" s="15">
         <v>1</v>
@@ -3801,10 +3819,10 @@
         <v>1</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G47" s="21">
         <v>75</v>
@@ -3842,7 +3860,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C48" s="15">
         <v>0</v>
@@ -3851,10 +3869,10 @@
         <v>1</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G48" s="21">
         <v>214</v>
@@ -3892,7 +3910,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C49" s="15">
         <v>2</v>
@@ -3901,10 +3919,10 @@
         <v>1</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G49" s="21">
         <v>97</v>
@@ -3942,7 +3960,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C50" s="15">
         <v>1</v>
@@ -3951,10 +3969,10 @@
         <v>0</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G50" s="21">
         <v>139</v>
@@ -3992,7 +4010,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C51" s="16">
         <v>2</v>
@@ -4001,10 +4019,10 @@
         <v>0</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G51" s="22">
         <v>5</v>
@@ -4042,7 +4060,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" s="16">
         <v>2</v>
@@ -4051,10 +4069,10 @@
         <v>1</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G52" s="22">
         <v>18</v>
@@ -4092,7 +4110,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C53" s="16">
         <v>2</v>
@@ -4101,10 +4119,10 @@
         <v>1</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G53" s="22">
         <v>30</v>
@@ -4151,10 +4169,10 @@
         <v>0</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G54" s="22">
         <v>41</v>
@@ -4192,7 +4210,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C55" s="16">
         <v>3</v>
@@ -4201,10 +4219,10 @@
         <v>1</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G55" s="22">
         <v>49</v>
@@ -4242,7 +4260,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C56" s="16">
         <v>2</v>
@@ -4251,10 +4269,10 @@
         <v>2</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G56" s="22">
         <v>119</v>
@@ -4292,7 +4310,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C57" s="16">
         <v>2</v>
@@ -4301,10 +4319,10 @@
         <v>2</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G57" s="22">
         <v>150</v>
@@ -4342,7 +4360,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C58" s="16">
         <v>1</v>
@@ -4351,10 +4369,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G58" s="22">
         <v>216</v>
@@ -4392,7 +4410,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C59" s="16">
         <v>1</v>
@@ -4401,10 +4419,10 @@
         <v>2</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G59" s="22">
         <v>96</v>
@@ -4442,7 +4460,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C60" s="16">
         <v>1</v>
@@ -4451,10 +4469,10 @@
         <v>0</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G60" s="22">
         <v>104</v>
@@ -4492,7 +4510,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C61" s="15">
         <v>1</v>
@@ -4501,10 +4519,10 @@
         <v>1</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G61" s="21">
         <v>206</v>
@@ -4542,7 +4560,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C62" s="15">
         <v>1</v>
@@ -4551,10 +4569,10 @@
         <v>0</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G62" s="21">
         <v>195</v>
@@ -4592,7 +4610,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C63" s="15">
         <v>1</v>
@@ -4601,10 +4619,10 @@
         <v>1</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G63" s="21">
         <v>173</v>
@@ -4642,7 +4660,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C64" s="15">
         <v>1</v>
@@ -4651,10 +4669,10 @@
         <v>1</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G64" s="21">
         <v>161</v>
@@ -4692,7 +4710,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C65" s="15">
         <v>0</v>
@@ -4701,10 +4719,10 @@
         <v>0</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G65" s="21">
         <v>1000</v>
@@ -4742,7 +4760,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C66" s="15">
         <v>0</v>
@@ -4754,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G66" s="21">
         <v>40</v>
@@ -4792,7 +4810,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C67" s="15">
         <v>0</v>
@@ -4801,10 +4819,10 @@
         <v>1</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G67" s="21">
         <v>20</v>
@@ -4842,7 +4860,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C68" s="15">
         <v>2</v>
@@ -4851,10 +4869,10 @@
         <v>0</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G68" s="21">
         <v>9</v>
@@ -4892,7 +4910,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C69" s="15">
         <v>1</v>
@@ -4901,10 +4919,10 @@
         <v>1</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G69" s="21">
         <v>184</v>
@@ -4942,7 +4960,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C70" s="15">
         <v>2</v>
@@ -4951,10 +4969,10 @@
         <v>1</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G70" s="21">
         <v>139</v>
@@ -4992,7 +5010,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C71" s="16">
         <v>2</v>
@@ -5001,10 +5019,10 @@
         <v>1</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G71" s="22">
         <v>5</v>
@@ -5042,7 +5060,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" s="16">
         <v>1</v>
@@ -5051,10 +5069,10 @@
         <v>2</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G72" s="22">
         <v>19</v>
@@ -5092,7 +5110,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C73" s="16">
         <v>2</v>
@@ -5101,10 +5119,10 @@
         <v>2</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G73" s="22">
         <v>30</v>
@@ -5142,7 +5160,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C74" s="16">
         <v>1</v>
@@ -5151,10 +5169,10 @@
         <v>1</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G74" s="22">
         <v>159</v>
@@ -5192,7 +5210,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C75" s="16">
         <v>0</v>
@@ -5204,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G75" s="22">
         <v>43</v>
@@ -5242,19 +5260,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="16">
+        <v>1</v>
+      </c>
+      <c r="D76" s="7">
+        <v>1</v>
+      </c>
+      <c r="E76" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="16">
-        <v>1</v>
-      </c>
-      <c r="D76" s="7">
-        <v>1</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>7</v>
-      </c>
       <c r="F76" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G76" s="22">
         <v>115</v>
@@ -5292,7 +5310,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C77" s="16">
         <v>1</v>
@@ -5301,10 +5319,10 @@
         <v>1</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G77" s="22">
         <v>73</v>
@@ -5342,7 +5360,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C78" s="16">
         <v>1</v>
@@ -5351,10 +5369,10 @@
         <v>1</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G78" s="22">
         <v>214</v>
@@ -5392,7 +5410,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C79" s="16">
         <v>0</v>
@@ -5401,10 +5419,10 @@
         <v>1</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G79" s="22">
         <v>137</v>
@@ -5442,7 +5460,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C80" s="16">
         <v>1</v>
@@ -5451,10 +5469,10 @@
         <v>0</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G80" s="22">
         <v>105</v>
@@ -5492,7 +5510,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C81" s="15">
         <v>2</v>
@@ -5501,10 +5519,10 @@
         <v>1</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G81" s="21">
         <v>203</v>
@@ -5542,7 +5560,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C82" s="15">
         <v>1</v>
@@ -5551,10 +5569,10 @@
         <v>2</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G82" s="21">
         <v>195</v>
@@ -5592,7 +5610,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C83" s="15">
         <v>0</v>
@@ -5601,10 +5619,10 @@
         <v>2</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G83" s="21">
         <v>119</v>
@@ -5651,10 +5669,10 @@
         <v>0</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G84" s="21">
         <v>1000</v>
@@ -5692,7 +5710,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C85" s="15">
         <v>1</v>
@@ -5701,10 +5719,10 @@
         <v>2</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G85" s="21">
         <v>52</v>
@@ -5742,7 +5760,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C86" s="15">
         <v>1</v>
@@ -5751,10 +5769,10 @@
         <v>0</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G86" s="21">
         <v>60</v>
@@ -5792,7 +5810,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C87" s="15">
         <v>1</v>
@@ -5801,10 +5819,10 @@
         <v>1</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G87" s="21">
         <v>148</v>
@@ -5842,7 +5860,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C88" s="15">
         <v>0</v>
@@ -5851,10 +5869,10 @@
         <v>1</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G88" s="21">
         <v>162</v>
@@ -5892,7 +5910,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C89" s="15">
         <v>1</v>
@@ -5901,10 +5919,10 @@
         <v>1</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G89" s="21">
         <v>93</v>
@@ -5942,7 +5960,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C90" s="15">
         <v>2</v>
@@ -5951,10 +5969,10 @@
         <v>2</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G90" s="21">
         <v>139</v>
@@ -5992,7 +6010,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C91" s="16">
         <v>0</v>
@@ -6001,10 +6019,10 @@
         <v>2</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G91" s="22">
         <v>150</v>
@@ -6042,7 +6060,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92" s="16">
         <v>5</v>
@@ -6051,10 +6069,10 @@
         <v>3</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G92" s="22">
         <v>15</v>
@@ -6092,7 +6110,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C93" s="16">
         <v>1</v>
@@ -6101,10 +6119,10 @@
         <v>0</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G93" s="22">
         <v>172</v>
@@ -6151,10 +6169,10 @@
         <v>0</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G94" s="22">
         <v>38</v>
@@ -6192,7 +6210,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C95" s="16">
         <v>1</v>
@@ -6201,10 +6219,10 @@
         <v>1</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G95" s="22">
         <v>128</v>
@@ -6242,7 +6260,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C96" s="16">
         <v>1</v>
@@ -6251,10 +6269,10 @@
         <v>3</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G96" s="22">
         <v>60</v>
@@ -6292,7 +6310,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C97" s="16">
         <v>1</v>
@@ -6301,10 +6319,10 @@
         <v>1</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G97" s="22">
         <v>74</v>
@@ -6342,7 +6360,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C98" s="16">
         <v>2</v>
@@ -6351,10 +6369,10 @@
         <v>1</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G98" s="22">
         <v>84</v>
@@ -6392,7 +6410,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C99" s="16">
         <v>1</v>
@@ -6401,10 +6419,10 @@
         <v>0</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G99" s="22">
         <v>182</v>
@@ -6442,7 +6460,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C100" s="16">
         <v>1</v>
@@ -6451,10 +6469,10 @@
         <v>1</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G100" s="22">
         <v>104</v>
@@ -6492,7 +6510,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C101" s="15">
         <v>1</v>
@@ -6501,10 +6519,10 @@
         <v>1</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G101" s="21">
         <v>9</v>
@@ -6542,7 +6560,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102" s="15">
         <v>0</v>
@@ -6551,10 +6569,10 @@
         <v>2</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G102" s="21">
         <v>82</v>
@@ -6592,7 +6610,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C103" s="15">
         <v>1</v>
@@ -6601,10 +6619,10 @@
         <v>0</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G103" s="21">
         <v>30</v>
@@ -6642,7 +6660,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C104" s="15">
         <v>2</v>
@@ -6651,10 +6669,10 @@
         <v>0</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G104" s="21">
         <v>162</v>
@@ -6692,7 +6710,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105" s="15">
         <v>0</v>
@@ -6701,10 +6719,10 @@
         <v>1</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G105" s="21">
         <v>96</v>
@@ -6742,7 +6760,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C106" s="15">
         <v>3</v>
@@ -6751,10 +6769,10 @@
         <v>1</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G106" s="21">
         <v>116</v>
@@ -6792,7 +6810,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C107" s="15">
         <v>0</v>
@@ -6801,10 +6819,10 @@
         <v>0</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G107" s="21">
         <v>1000</v>
@@ -6842,7 +6860,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C108" s="15">
         <v>1</v>
@@ -6851,10 +6869,10 @@
         <v>1</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G108" s="21">
         <v>218</v>
@@ -6892,7 +6910,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C109" s="15">
         <v>1</v>
@@ -6901,10 +6919,10 @@
         <v>1</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G109" s="21">
         <v>186</v>
@@ -6942,7 +6960,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C110" s="15">
         <v>0</v>
@@ -6954,7 +6972,7 @@
         <v>0</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G110" s="21">
         <v>39</v>
@@ -6992,7 +7010,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C111" s="16">
         <v>0</v>
@@ -7001,10 +7019,10 @@
         <v>0</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G111" s="22">
         <v>1000</v>
@@ -7042,7 +7060,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C112" s="16">
         <v>2</v>
@@ -7051,10 +7069,10 @@
         <v>0</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G112" s="22">
         <v>194</v>
@@ -7092,7 +7110,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C113" s="16">
         <v>4</v>
@@ -7101,10 +7119,10 @@
         <v>2</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G113" s="22">
         <v>170</v>
@@ -7151,10 +7169,10 @@
         <v>2</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G114" s="22">
         <v>38</v>
@@ -7192,7 +7210,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C115" s="16">
         <v>1</v>
@@ -7201,10 +7219,10 @@
         <v>0</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G115" s="22">
         <v>52</v>
@@ -7242,7 +7260,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C116" s="16">
         <v>1</v>
@@ -7251,10 +7269,10 @@
         <v>2</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G116" s="22">
         <v>63</v>
@@ -7292,7 +7310,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C117" s="16">
         <v>0</v>
@@ -7301,10 +7319,10 @@
         <v>0</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G117" s="22">
         <v>1000</v>
@@ -7342,7 +7360,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C118" s="16">
         <v>1</v>
@@ -7351,10 +7369,10 @@
         <v>2</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G118" s="22">
         <v>218</v>
@@ -7392,7 +7410,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C119" s="16">
         <v>3</v>
@@ -7401,10 +7419,10 @@
         <v>2</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G119" s="22">
         <v>95</v>
@@ -7442,7 +7460,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C120" s="16">
         <v>1</v>
@@ -7451,10 +7469,10 @@
         <v>1</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G120" s="22">
         <v>137</v>
@@ -7492,7 +7510,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C121" s="15">
         <v>2</v>
@@ -7501,10 +7519,10 @@
         <v>0</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G121" s="21">
         <v>8</v>
@@ -7542,7 +7560,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C122" s="15">
         <v>2</v>
@@ -7551,10 +7569,10 @@
         <v>0</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G122" s="21">
         <v>17</v>
@@ -7592,7 +7610,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C123" s="15">
         <v>1</v>
@@ -7604,7 +7622,7 @@
         <v>0</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G123" s="21">
         <v>30</v>
@@ -7642,7 +7660,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C124" s="15">
         <v>1</v>
@@ -7651,10 +7669,10 @@
         <v>0</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G124" s="21">
         <v>161</v>
@@ -7692,7 +7710,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C125" s="15">
         <v>2</v>
@@ -7701,10 +7719,10 @@
         <v>2</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G125" s="21">
         <v>127</v>
@@ -7742,7 +7760,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C126" s="15">
         <v>2</v>
@@ -7751,10 +7769,10 @@
         <v>3</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G126" s="21">
         <v>118</v>
@@ -7792,7 +7810,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C127" s="15">
         <v>1</v>
@@ -7801,10 +7819,10 @@
         <v>0</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G127" s="21">
         <v>73</v>
@@ -7842,7 +7860,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C128" s="15">
         <v>3</v>
@@ -7851,10 +7869,10 @@
         <v>1</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G128" s="21">
         <v>84</v>
@@ -7892,19 +7910,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" s="15">
+        <v>0</v>
+      </c>
+      <c r="D129" s="2">
+        <v>0</v>
+      </c>
+      <c r="E129" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C129" s="15">
-        <v>0</v>
-      </c>
-      <c r="D129" s="2">
-        <v>0</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F129" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G129" s="21">
         <v>1000</v>
@@ -7942,7 +7960,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C130" s="15">
         <v>0</v>
@@ -7951,10 +7969,10 @@
         <v>1</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G130" s="21">
         <v>140</v>
@@ -7992,7 +8010,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C131" s="16">
         <v>3</v>
@@ -8001,10 +8019,10 @@
         <v>2</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G131" s="22">
         <v>5</v>
@@ -8042,7 +8060,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C132" s="16">
         <v>3</v>
@@ -8051,10 +8069,10 @@
         <v>0</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G132" s="22">
         <v>195</v>
@@ -8092,19 +8110,19 @@
         <v>132</v>
       </c>
       <c r="B133" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C133" s="16">
+        <v>0</v>
+      </c>
+      <c r="D133" s="7">
+        <v>0</v>
+      </c>
+      <c r="E133" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C133" s="16">
-        <v>0</v>
-      </c>
-      <c r="D133" s="7">
-        <v>0</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>5</v>
-      </c>
       <c r="F133" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G133" s="22">
         <v>1000</v>
@@ -8142,7 +8160,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C134" s="16">
         <v>0</v>
@@ -8151,10 +8169,10 @@
         <v>0</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G134" s="22">
         <v>1000</v>
@@ -8192,7 +8210,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C135" s="16">
         <v>0</v>
@@ -8201,10 +8219,10 @@
         <v>1</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G135" s="22">
         <v>18</v>
@@ -8242,7 +8260,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C136" s="16">
         <v>3</v>
@@ -8251,10 +8269,10 @@
         <v>0</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G136" s="22">
         <v>115</v>
@@ -8292,7 +8310,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C137" s="16">
         <v>1</v>
@@ -8301,10 +8319,10 @@
         <v>1</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G137" s="22">
         <v>150</v>
@@ -8342,7 +8360,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C138" s="16">
         <v>1</v>
@@ -8351,10 +8369,10 @@
         <v>0</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G138" s="22">
         <v>217</v>
@@ -8392,7 +8410,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C139" s="16">
         <v>2</v>
@@ -8404,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G139" s="22">
         <v>93</v>
@@ -8442,7 +8460,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C140" s="16">
         <v>4</v>
@@ -8451,10 +8469,10 @@
         <v>2</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G140" s="22">
         <v>137</v>
@@ -8492,7 +8510,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C141" s="15">
         <v>1</v>
@@ -8501,10 +8519,10 @@
         <v>0</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G141" s="21">
         <v>204</v>
@@ -8542,7 +8560,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C142" s="15">
         <v>4</v>
@@ -8551,10 +8569,10 @@
         <v>0</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G142" s="21">
         <v>16</v>
@@ -8592,7 +8610,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C143" s="15">
         <v>0</v>
@@ -8601,10 +8619,10 @@
         <v>1</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G143" s="21">
         <v>49</v>
@@ -8651,10 +8669,10 @@
         <v>2</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G144" s="21">
         <v>140</v>
@@ -8692,7 +8710,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C145" s="15">
         <v>1</v>
@@ -8701,10 +8719,10 @@
         <v>2</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G145" s="21">
         <v>127</v>
@@ -8742,7 +8760,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C146" s="15">
         <v>1</v>
@@ -8751,10 +8769,10 @@
         <v>2</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G146" s="21">
         <v>63</v>
@@ -8792,7 +8810,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C147" s="15">
         <v>1</v>
@@ -8801,10 +8819,10 @@
         <v>1</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G147" s="21">
         <v>151</v>
@@ -8842,7 +8860,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C148" s="15">
         <v>1</v>
@@ -8851,10 +8869,10 @@
         <v>2</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G148" s="21">
         <v>86</v>
@@ -8892,7 +8910,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C149" s="15">
         <v>1</v>
@@ -8901,10 +8919,10 @@
         <v>2</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G149" s="21">
         <v>98</v>
@@ -8942,7 +8960,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C150" s="15">
         <v>2</v>
@@ -8951,10 +8969,10 @@
         <v>1</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G150" s="21">
         <v>105</v>
@@ -8992,7 +9010,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C151" s="16">
         <v>0</v>
@@ -9001,10 +9019,10 @@
         <v>0</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G151" s="22">
         <v>1000</v>
@@ -9042,7 +9060,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C152" s="16">
         <v>2</v>
@@ -9051,10 +9069,10 @@
         <v>1</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G152" s="22">
         <v>18</v>
@@ -9092,7 +9110,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C153" s="16">
         <v>4</v>
@@ -9101,10 +9119,10 @@
         <v>0</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G153" s="22">
         <v>170</v>
@@ -9142,7 +9160,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C154" s="16">
         <v>1</v>
@@ -9151,10 +9169,10 @@
         <v>0</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G154" s="22">
         <v>164</v>
@@ -9192,7 +9210,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C155" s="16">
         <v>1</v>
@@ -9201,10 +9219,10 @@
         <v>0</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G155" s="22">
         <v>129</v>
@@ -9242,7 +9260,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C156" s="16">
         <v>1</v>
@@ -9251,10 +9269,10 @@
         <v>0</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G156" s="22">
         <v>120</v>
@@ -9292,7 +9310,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C157" s="16">
         <v>0</v>
@@ -9304,7 +9322,7 @@
         <v>0</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G157" s="22">
         <v>1000</v>
@@ -9342,7 +9360,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C158" s="16">
         <v>2</v>
@@ -9351,10 +9369,10 @@
         <v>1</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G158" s="22">
         <v>218</v>
@@ -9392,7 +9410,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C159" s="16">
         <v>2</v>
@@ -9401,10 +9419,10 @@
         <v>0</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G159" s="22">
         <v>184</v>
@@ -9442,7 +9460,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C160" s="16">
         <v>2</v>
@@ -9451,10 +9469,10 @@
         <v>2</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G160" s="22">
         <v>109</v>
@@ -9492,7 +9510,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C161" s="15">
         <v>0</v>
@@ -9501,10 +9519,10 @@
         <v>3</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G161" s="21">
         <v>172</v>
@@ -9542,7 +9560,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C162" s="15">
         <v>2</v>
@@ -9551,10 +9569,10 @@
         <v>0</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G162" s="21">
         <v>195</v>
@@ -9592,7 +9610,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C163" s="15">
         <v>2</v>
@@ -9601,10 +9619,10 @@
         <v>2</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G163" s="21">
         <v>28</v>
@@ -9651,10 +9669,10 @@
         <v>0</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G164" s="21">
         <v>38</v>
@@ -9692,7 +9710,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C165" s="15">
         <v>0</v>
@@ -9701,10 +9719,10 @@
         <v>1</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G165" s="21">
         <v>9</v>
@@ -9742,7 +9760,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C166" s="15">
         <v>0</v>
@@ -9751,10 +9769,10 @@
         <v>0</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G166" s="21">
         <v>1000</v>
@@ -9792,7 +9810,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C167" s="15">
         <v>3</v>
@@ -9801,10 +9819,10 @@
         <v>1</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G167" s="21">
         <v>150</v>
@@ -9842,7 +9860,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C168" s="15">
         <v>0</v>
@@ -9851,10 +9869,10 @@
         <v>1</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G168" s="21">
         <v>75</v>
@@ -9892,7 +9910,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C169" s="15">
         <v>1</v>
@@ -9901,10 +9919,10 @@
         <v>0</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G169" s="21">
         <v>95</v>
@@ -9942,7 +9960,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C170" s="15">
         <v>0</v>
@@ -9951,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G170" s="21">
         <v>1000</v>
@@ -9992,7 +10010,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C171" s="16">
         <v>0</v>
@@ -10004,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G171" s="22">
         <v>43</v>
@@ -10042,7 +10060,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C172" s="16">
         <v>4</v>
@@ -10051,10 +10069,10 @@
         <v>0</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G172" s="22">
         <v>193</v>
@@ -10092,7 +10110,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C173" s="16">
         <v>2</v>
@@ -10101,10 +10119,10 @@
         <v>1</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G173" s="22">
         <v>171</v>
@@ -10142,7 +10160,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C174" s="16">
         <v>3</v>
@@ -10151,10 +10169,10 @@
         <v>1</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G174" s="22">
         <v>159</v>
@@ -10192,7 +10210,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C175" s="16">
         <v>2</v>
@@ -10201,10 +10219,10 @@
         <v>0</v>
       </c>
       <c r="E175" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G175" s="22">
         <v>129</v>
@@ -10242,7 +10260,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C176" s="16">
         <v>3</v>
@@ -10251,10 +10269,10 @@
         <v>3</v>
       </c>
       <c r="E176" s="10" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G176" s="22">
         <v>118</v>
@@ -10292,7 +10310,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C177" s="16">
         <v>1</v>
@@ -10301,10 +10319,10 @@
         <v>0</v>
       </c>
       <c r="E177" s="8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G177" s="22">
         <v>153</v>
@@ -10342,7 +10360,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C178" s="16">
         <v>2</v>
@@ -10351,10 +10369,10 @@
         <v>3</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G178" s="22">
         <v>216</v>
@@ -10392,7 +10410,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C179" s="16">
         <v>1</v>
@@ -10401,10 +10419,10 @@
         <v>1</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G179" s="22">
         <v>181</v>
@@ -10442,7 +10460,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C180" s="16">
         <v>4</v>
@@ -10451,10 +10469,10 @@
         <v>1</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G180" s="22">
         <v>137</v>
@@ -10492,7 +10510,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C181" s="15">
         <v>1</v>
@@ -10501,10 +10519,10 @@
         <v>2</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G181" s="21">
         <v>10</v>
@@ -10542,7 +10560,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C182" s="15">
         <v>2</v>
@@ -10551,10 +10569,10 @@
         <v>1</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G182" s="21">
         <v>16</v>
@@ -10592,7 +10610,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C183" s="15">
         <v>3</v>
@@ -10601,10 +10619,10 @@
         <v>3</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G183" s="21">
         <v>29</v>
@@ -10651,10 +10669,10 @@
         <v>1</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G184" s="21">
         <v>40</v>
@@ -10692,7 +10710,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C185" s="15">
         <v>2</v>
@@ -10701,10 +10719,10 @@
         <v>0</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G185" s="21">
         <v>50</v>
@@ -10742,7 +10760,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C186" s="15">
         <v>1</v>
@@ -10751,10 +10769,10 @@
         <v>0</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G186" s="21">
         <v>63</v>
@@ -10792,7 +10810,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C187" s="15">
         <v>0</v>
@@ -10801,10 +10819,10 @@
         <v>0</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G187" s="21">
         <v>1000</v>
@@ -10842,7 +10860,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C188" s="15">
         <v>0</v>
@@ -10851,10 +10869,10 @@
         <v>1</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G188" s="21">
         <v>207</v>
@@ -10892,7 +10910,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C189" s="15">
         <v>1</v>
@@ -10901,10 +10919,10 @@
         <v>2</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G189" s="21">
         <v>97</v>
@@ -10942,7 +10960,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C190" s="15">
         <v>1</v>
@@ -10951,10 +10969,10 @@
         <v>0</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G190" s="21">
         <v>104</v>
@@ -10992,7 +11010,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C191" s="16">
         <v>3</v>
@@ -11001,10 +11019,10 @@
         <v>1</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F191" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G191" s="22">
         <v>203</v>
@@ -11042,7 +11060,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C192" s="16">
         <v>4</v>
@@ -11051,10 +11069,10 @@
         <v>1</v>
       </c>
       <c r="E192" s="10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G192" s="22">
         <v>193</v>
@@ -11092,7 +11110,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C193" s="16">
         <v>1</v>
@@ -11101,10 +11119,10 @@
         <v>0</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G193" s="22">
         <v>174</v>
@@ -11142,7 +11160,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C194" s="16">
         <v>1</v>
@@ -11151,10 +11169,10 @@
         <v>0</v>
       </c>
       <c r="E194" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F194" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G194" s="22">
         <v>159</v>
@@ -11192,7 +11210,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C195" s="16">
         <v>2</v>
@@ -11201,10 +11219,10 @@
         <v>2</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G195" s="22">
         <v>130</v>
@@ -11242,7 +11260,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C196" s="16">
         <v>3</v>
@@ -11251,10 +11269,10 @@
         <v>0</v>
       </c>
       <c r="E196" s="10" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G196" s="22">
         <v>118</v>
@@ -11292,7 +11310,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C197" s="16">
         <v>1</v>
@@ -11304,7 +11322,7 @@
         <v>0</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G197" s="22">
         <v>150</v>
@@ -11342,7 +11360,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C198" s="16">
         <v>1</v>
@@ -11351,10 +11369,10 @@
         <v>0</v>
       </c>
       <c r="E198" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G198" s="22">
         <v>218</v>
@@ -11392,7 +11410,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C199" s="16">
         <v>0</v>
@@ -11401,10 +11419,10 @@
         <v>1</v>
       </c>
       <c r="E199" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G199" s="22">
         <v>76</v>
@@ -11442,7 +11460,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C200" s="16">
         <v>1</v>
@@ -11451,10 +11469,10 @@
         <v>0</v>
       </c>
       <c r="E200" s="10" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G200" s="22">
         <v>141</v>
@@ -11492,7 +11510,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C201" s="15">
         <v>2</v>
@@ -11501,10 +11519,10 @@
         <v>3</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G201" s="21">
         <v>8</v>
@@ -11542,7 +11560,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C202" s="15">
         <v>1</v>
@@ -11551,10 +11569,10 @@
         <v>0</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G202" s="21">
         <v>17</v>
@@ -11592,25 +11610,25 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C203" s="15">
         <v>0</v>
       </c>
       <c r="D203" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G203" s="21">
         <v>195</v>
       </c>
       <c r="H203" s="21">
-        <v>1000</v>
+        <v>195</v>
       </c>
       <c r="I203" s="21">
         <v>1000</v>
@@ -11651,10 +11669,10 @@
         <v>0</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G204" s="21">
         <v>40</v>
@@ -11692,7 +11710,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C205" s="15">
         <v>1</v>
@@ -11701,10 +11719,10 @@
         <v>1</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G205" s="21">
         <v>51</v>
@@ -11742,7 +11760,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C206" s="15">
         <v>0</v>
@@ -11751,10 +11769,10 @@
         <v>1</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G206" s="21">
         <v>207</v>
@@ -11792,7 +11810,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C207" s="15">
         <v>3</v>
@@ -11801,10 +11819,10 @@
         <v>0</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G207" s="21">
         <v>73</v>
@@ -11842,7 +11860,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C208" s="15">
         <v>2</v>
@@ -11851,10 +11869,10 @@
         <v>1</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G208" s="21">
         <v>85</v>
@@ -11892,19 +11910,19 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C209" s="15">
+        <v>1</v>
+      </c>
+      <c r="D209" s="2">
+        <v>1</v>
+      </c>
+      <c r="E209" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C209" s="15">
-        <v>1</v>
-      </c>
-      <c r="D209" s="2">
-        <v>1</v>
-      </c>
-      <c r="E209" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F209" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G209" s="21">
         <v>98</v>
@@ -11942,7 +11960,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C210" s="15">
         <v>1</v>
@@ -11951,10 +11969,10 @@
         <v>2</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G210" s="21">
         <v>107</v>
@@ -11992,7 +12010,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C211" s="16">
         <v>1</v>
@@ -12001,10 +12019,10 @@
         <v>0</v>
       </c>
       <c r="E211" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G211" s="22">
         <v>207</v>
@@ -12042,7 +12060,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C212" s="16">
         <v>5</v>
@@ -12051,10 +12069,10 @@
         <v>0</v>
       </c>
       <c r="E212" s="10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F212" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G212" s="22">
         <v>192</v>
@@ -12092,7 +12110,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C213" s="16">
         <v>3</v>
@@ -12101,10 +12119,10 @@
         <v>0</v>
       </c>
       <c r="E213" s="8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F213" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G213" s="22">
         <v>29</v>
@@ -12142,7 +12160,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C214" s="16">
         <v>0</v>
@@ -12154,7 +12172,7 @@
         <v>0</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G214" s="22">
         <v>38</v>
@@ -12192,7 +12210,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C215" s="16">
         <v>0</v>
@@ -12201,10 +12219,10 @@
         <v>0</v>
       </c>
       <c r="E215" s="8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G215" s="22">
         <v>1000</v>
@@ -12242,7 +12260,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C216" s="16">
         <v>3</v>
@@ -12251,10 +12269,10 @@
         <v>0</v>
       </c>
       <c r="E216" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F216" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G216" s="22">
         <v>118</v>
@@ -12292,7 +12310,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C217" s="16">
         <v>0</v>
@@ -12301,10 +12319,10 @@
         <v>1</v>
       </c>
       <c r="E217" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F217" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G217" s="22">
         <v>74</v>
@@ -12342,19 +12360,19 @@
         <v>217</v>
       </c>
       <c r="B218" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C218" s="16">
+        <v>1</v>
+      </c>
+      <c r="D218" s="24">
+        <v>1</v>
+      </c>
+      <c r="E218" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C218" s="16">
-        <v>1</v>
-      </c>
-      <c r="D218" s="24">
-        <v>1</v>
-      </c>
-      <c r="E218" s="10" t="s">
-        <v>8</v>
-      </c>
       <c r="F218" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G218" s="22">
         <v>218</v>
@@ -12392,7 +12410,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C219" s="16">
         <v>1</v>
@@ -12401,10 +12419,10 @@
         <v>0</v>
       </c>
       <c r="E219" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G219" s="22">
         <v>186</v>
@@ -12442,7 +12460,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C220" s="16">
         <v>0</v>
@@ -12451,10 +12469,10 @@
         <v>1</v>
       </c>
       <c r="E220" s="10" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G220" s="22">
         <v>9</v>
@@ -12492,22 +12510,22 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C221" s="19">
-        <v>0</v>
-      </c>
-      <c r="D221" s="20">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C221" s="15">
+        <v>0</v>
+      </c>
+      <c r="D221" s="25">
+        <v>1</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G221" s="21">
-        <v>1000</v>
+        <v>217</v>
       </c>
       <c r="H221" s="21">
         <v>1000</v>
@@ -12542,40 +12560,40 @@
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C222" s="15">
+        <v>5</v>
+      </c>
+      <c r="D222" s="25">
         <v>2</v>
       </c>
-      <c r="C222" s="19">
-        <v>0</v>
-      </c>
-      <c r="D222" s="20">
-        <v>0</v>
-      </c>
       <c r="E222" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G222" s="21">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="H222" s="21">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="I222" s="21">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="J222" s="21">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="K222" s="21">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="L222" s="21">
-        <v>1000</v>
+        <v>106</v>
       </c>
       <c r="M222" s="21">
-        <v>1000</v>
+        <v>107</v>
       </c>
       <c r="N222" s="21">
         <v>1000</v>
@@ -12592,25 +12610,25 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C223" s="19">
-        <v>0</v>
-      </c>
-      <c r="D223" s="20">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="C223" s="15">
+        <v>1</v>
+      </c>
+      <c r="D223" s="25">
+        <v>1</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G223" s="21">
-        <v>1000</v>
+        <v>172</v>
       </c>
       <c r="H223" s="21">
-        <v>1000</v>
+        <v>151</v>
       </c>
       <c r="I223" s="21">
         <v>1000</v>
@@ -12644,23 +12662,23 @@
       <c r="B224" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C224" s="19">
-        <v>0</v>
-      </c>
-      <c r="D224" s="20">
-        <v>0</v>
+      <c r="C224" s="15">
+        <v>1</v>
+      </c>
+      <c r="D224" s="25">
+        <v>1</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G224" s="21">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="H224" s="21">
-        <v>1000</v>
+        <v>195</v>
       </c>
       <c r="I224" s="21">
         <v>1000</v>
@@ -12692,22 +12710,22 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C225" s="19">
-        <v>0</v>
-      </c>
-      <c r="D225" s="20">
+        <v>9</v>
+      </c>
+      <c r="C225" s="15">
+        <v>1</v>
+      </c>
+      <c r="D225" s="25">
         <v>0</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G225" s="21">
-        <v>1000</v>
+        <v>129</v>
       </c>
       <c r="H225" s="21">
         <v>1000</v>
@@ -12742,31 +12760,31 @@
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C226" s="19">
-        <v>0</v>
-      </c>
-      <c r="D226" s="20">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C226" s="15">
+        <v>2</v>
+      </c>
+      <c r="D226" s="25">
+        <v>2</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G226" s="21">
-        <v>1000</v>
+        <v>61</v>
       </c>
       <c r="H226" s="21">
-        <v>1000</v>
+        <v>61</v>
       </c>
       <c r="I226" s="21">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="J226" s="21">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="K226" s="21">
         <v>1000</v>
@@ -12792,22 +12810,22 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C227" s="19">
-        <v>0</v>
-      </c>
-      <c r="D227" s="20">
+        <v>4</v>
+      </c>
+      <c r="C227" s="15">
+        <v>1</v>
+      </c>
+      <c r="D227" s="25">
         <v>0</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G227" s="21">
-        <v>1000</v>
+        <v>74</v>
       </c>
       <c r="H227" s="21">
         <v>1000</v>
@@ -12842,25 +12860,25 @@
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C228" s="19">
-        <v>0</v>
-      </c>
-      <c r="D228" s="20">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="C228" s="15">
+        <v>1</v>
+      </c>
+      <c r="D228" s="25">
+        <v>1</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G228" s="21">
-        <v>1000</v>
+        <v>83</v>
       </c>
       <c r="H228" s="21">
-        <v>1000</v>
+        <v>183</v>
       </c>
       <c r="I228" s="21">
         <v>1000</v>
@@ -12892,22 +12910,22 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C229" s="19">
-        <v>0</v>
-      </c>
-      <c r="D229" s="20">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="C229" s="15">
+        <v>0</v>
+      </c>
+      <c r="D229" s="25">
+        <v>1</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G229" s="21">
-        <v>1000</v>
+        <v>118</v>
       </c>
       <c r="H229" s="21">
         <v>1000</v>
@@ -12942,25 +12960,25 @@
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C230" s="19">
-        <v>0</v>
-      </c>
-      <c r="D230" s="20">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="C230" s="15">
+        <v>1</v>
+      </c>
+      <c r="D230" s="25">
+        <v>1</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G230" s="21">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="H230" s="21">
-        <v>1000</v>
+        <v>206</v>
       </c>
       <c r="I230" s="21">
         <v>1000</v>
@@ -12992,25 +13010,25 @@
         <v>230</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C231" s="17">
-        <v>0</v>
-      </c>
-      <c r="D231" s="18">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="C231" s="16">
+        <v>1</v>
+      </c>
+      <c r="D231" s="24">
+        <v>1</v>
       </c>
       <c r="E231" s="8" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F231" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G231" s="22">
-        <v>1000</v>
+        <v>205</v>
       </c>
       <c r="H231" s="22">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="I231" s="22">
         <v>1000</v>
@@ -13042,25 +13060,25 @@
         <v>231</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C232" s="17">
-        <v>0</v>
-      </c>
-      <c r="D232" s="18">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C232" s="16">
+        <v>1</v>
+      </c>
+      <c r="D232" s="24">
+        <v>1</v>
       </c>
       <c r="E232" s="10" t="s">
         <v>0</v>
       </c>
       <c r="F232" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G232" s="22">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="H232" s="22">
-        <v>1000</v>
+        <v>41</v>
       </c>
       <c r="I232" s="22">
         <v>1000</v>
@@ -13092,22 +13110,22 @@
         <v>232</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C233" s="17">
-        <v>0</v>
-      </c>
-      <c r="D233" s="18">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="C233" s="16">
+        <v>0</v>
+      </c>
+      <c r="D233" s="24">
+        <v>1</v>
       </c>
       <c r="E233" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F233" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G233" s="22">
-        <v>1000</v>
+        <v>74</v>
       </c>
       <c r="H233" s="22">
         <v>1000</v>
@@ -13142,22 +13160,22 @@
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C234" s="17">
-        <v>0</v>
-      </c>
-      <c r="D234" s="18">
+        <v>8</v>
+      </c>
+      <c r="C234" s="16">
+        <v>1</v>
+      </c>
+      <c r="D234" s="24">
         <v>0</v>
       </c>
       <c r="E234" s="10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F234" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G234" s="22">
-        <v>1000</v>
+        <v>161</v>
       </c>
       <c r="H234" s="22">
         <v>1000</v>
@@ -13192,22 +13210,22 @@
         <v>234</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C235" s="17">
-        <v>0</v>
-      </c>
-      <c r="D235" s="18">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C235" s="16">
+        <v>0</v>
+      </c>
+      <c r="D235" s="24">
+        <v>1</v>
       </c>
       <c r="E235" s="8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F235" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G235" s="22">
-        <v>1000</v>
+        <v>195</v>
       </c>
       <c r="H235" s="22">
         <v>1000</v>
@@ -13242,31 +13260,31 @@
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C236" s="17">
-        <v>0</v>
-      </c>
-      <c r="D236" s="18">
+        <v>10</v>
+      </c>
+      <c r="C236" s="16">
+        <v>4</v>
+      </c>
+      <c r="D236" s="24">
         <v>0</v>
       </c>
       <c r="E236" s="10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F236" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G236" s="22">
-        <v>1000</v>
+        <v>115</v>
       </c>
       <c r="H236" s="22">
-        <v>1000</v>
+        <v>116</v>
       </c>
       <c r="I236" s="22">
-        <v>1000</v>
+        <v>117</v>
       </c>
       <c r="J236" s="22">
-        <v>1000</v>
+        <v>118</v>
       </c>
       <c r="K236" s="22">
         <v>1000</v>
@@ -13292,19 +13310,19 @@
         <v>236</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C237" s="17">
-        <v>0</v>
-      </c>
-      <c r="D237" s="18">
+        <v>18</v>
+      </c>
+      <c r="C237" s="16">
+        <v>0</v>
+      </c>
+      <c r="D237" s="24">
         <v>0</v>
       </c>
       <c r="E237" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F237" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G237" s="22">
         <v>1000</v>
@@ -13342,28 +13360,28 @@
         <v>237</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C238" s="17">
-        <v>0</v>
-      </c>
-      <c r="D238" s="18">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="C238" s="16">
+        <v>2</v>
+      </c>
+      <c r="D238" s="24">
+        <v>1</v>
       </c>
       <c r="E238" s="8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F238" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G238" s="22">
-        <v>1000</v>
+        <v>217</v>
       </c>
       <c r="H238" s="22">
-        <v>1000</v>
+        <v>218</v>
       </c>
       <c r="I238" s="22">
-        <v>1000</v>
+        <v>86</v>
       </c>
       <c r="J238" s="22">
         <v>1000</v>
@@ -13392,19 +13410,19 @@
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C239" s="17">
-        <v>0</v>
-      </c>
-      <c r="D239" s="18">
+        <v>19</v>
+      </c>
+      <c r="C239" s="16">
+        <v>0</v>
+      </c>
+      <c r="D239" s="24">
         <v>0</v>
       </c>
       <c r="E239" s="10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F239" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G239" s="22">
         <v>1000</v>
@@ -13442,22 +13460,22 @@
         <v>239</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C240" s="17">
-        <v>0</v>
-      </c>
-      <c r="D240" s="18">
+        <v>5</v>
+      </c>
+      <c r="C240" s="16">
+        <v>1</v>
+      </c>
+      <c r="D240" s="24">
         <v>0</v>
       </c>
       <c r="E240" s="8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F240" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G240" s="22">
-        <v>1000</v>
+        <v>108</v>
       </c>
       <c r="H240" s="22">
         <v>1000</v>
@@ -13492,25 +13510,25 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C241" s="19">
-        <v>0</v>
-      </c>
-      <c r="D241" s="20">
+        <v>20</v>
+      </c>
+      <c r="C241" s="15">
+        <v>2</v>
+      </c>
+      <c r="D241" s="25">
         <v>0</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G241" s="21">
-        <v>1000</v>
+        <v>207</v>
       </c>
       <c r="H241" s="21">
-        <v>1000</v>
+        <v>208</v>
       </c>
       <c r="I241" s="21">
         <v>1000</v>
@@ -13542,25 +13560,25 @@
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C242" s="19">
-        <v>0</v>
-      </c>
-      <c r="D242" s="20">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C242" s="15">
+        <v>1</v>
+      </c>
+      <c r="D242" s="25">
+        <v>1</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G242" s="21">
-        <v>1000</v>
+        <v>197</v>
       </c>
       <c r="H242" s="21">
-        <v>1000</v>
+        <v>152</v>
       </c>
       <c r="I242" s="21">
         <v>1000</v>
@@ -13592,31 +13610,31 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C243" s="19">
-        <v>0</v>
-      </c>
-      <c r="D243" s="20">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="C243" s="15">
+        <v>2</v>
+      </c>
+      <c r="D243" s="25">
+        <v>2</v>
       </c>
       <c r="E243" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G243" s="21">
-        <v>1000</v>
+        <v>172</v>
       </c>
       <c r="H243" s="21">
-        <v>1000</v>
+        <v>173</v>
       </c>
       <c r="I243" s="21">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="J243" s="21">
-        <v>1000</v>
+        <v>39</v>
       </c>
       <c r="K243" s="21">
         <v>1000</v>
@@ -13642,31 +13660,31 @@
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C244" s="19">
-        <v>0</v>
-      </c>
-      <c r="D244" s="20">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C244" s="15">
+        <v>2</v>
+      </c>
+      <c r="D244" s="25">
+        <v>2</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G244" s="21">
-        <v>1000</v>
+        <v>162</v>
       </c>
       <c r="H244" s="21">
-        <v>1000</v>
+        <v>163</v>
       </c>
       <c r="I244" s="21">
-        <v>1000</v>
+        <v>118</v>
       </c>
       <c r="J244" s="21">
-        <v>1000</v>
+        <v>119</v>
       </c>
       <c r="K244" s="21">
         <v>1000</v>
@@ -13692,28 +13710,28 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C245" s="19">
-        <v>0</v>
-      </c>
-      <c r="D245" s="20">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="C245" s="15">
+        <v>1</v>
+      </c>
+      <c r="D245" s="25">
+        <v>2</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G245" s="21">
-        <v>1000</v>
+        <v>128</v>
       </c>
       <c r="H245" s="21">
-        <v>1000</v>
+        <v>218</v>
       </c>
       <c r="I245" s="21">
-        <v>1000</v>
+        <v>219</v>
       </c>
       <c r="J245" s="21">
         <v>1000</v>
@@ -13742,25 +13760,25 @@
         <v>245</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C246" s="19">
-        <v>0</v>
-      </c>
-      <c r="D246" s="20">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C246" s="15">
+        <v>1</v>
+      </c>
+      <c r="D246" s="25">
+        <v>1</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G246" s="21">
-        <v>1000</v>
+        <v>61</v>
       </c>
       <c r="H246" s="21">
-        <v>1000</v>
+        <v>96</v>
       </c>
       <c r="I246" s="21">
         <v>1000</v>
@@ -13792,31 +13810,31 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C247" s="19">
-        <v>0</v>
-      </c>
-      <c r="D247" s="20">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C247" s="15">
+        <v>1</v>
+      </c>
+      <c r="D247" s="25">
+        <v>3</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G247" s="21">
-        <v>1000</v>
+        <v>74</v>
       </c>
       <c r="H247" s="21">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="I247" s="21">
-        <v>1000</v>
+        <v>51</v>
       </c>
       <c r="J247" s="21">
-        <v>1000</v>
+        <v>52</v>
       </c>
       <c r="K247" s="21">
         <v>1000</v>
@@ -13842,25 +13860,25 @@
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C248" s="15">
+        <v>0</v>
+      </c>
+      <c r="D248" s="25">
+        <v>2</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G248" s="21">
         <v>7</v>
       </c>
-      <c r="C248" s="19">
-        <v>0</v>
-      </c>
-      <c r="D248" s="20">
-        <v>0</v>
-      </c>
-      <c r="E248" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F248" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G248" s="21">
-        <v>1000</v>
-      </c>
       <c r="H248" s="21">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="I248" s="21">
         <v>1000</v>
@@ -13892,25 +13910,25 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C249" s="19">
-        <v>0</v>
-      </c>
-      <c r="D249" s="20">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="C249" s="15">
+        <v>1</v>
+      </c>
+      <c r="D249" s="25">
+        <v>1</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G249" s="21">
-        <v>1000</v>
+        <v>185</v>
       </c>
       <c r="H249" s="21">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="I249" s="21">
         <v>1000</v>
@@ -13942,22 +13960,22 @@
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C250" s="19">
-        <v>0</v>
-      </c>
-      <c r="D250" s="20">
+        <v>11</v>
+      </c>
+      <c r="C250" s="15">
+        <v>1</v>
+      </c>
+      <c r="D250" s="25">
         <v>0</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G250" s="21">
-        <v>1000</v>
+        <v>139</v>
       </c>
       <c r="H250" s="21">
         <v>1000</v>
@@ -13992,25 +14010,25 @@
         <v>250</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C251" s="17">
-        <v>0</v>
-      </c>
-      <c r="D251" s="18">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C251" s="16">
+        <v>1</v>
+      </c>
+      <c r="D251" s="24">
+        <v>1</v>
       </c>
       <c r="E251" s="8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F251" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G251" s="22">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="H251" s="22">
-        <v>1000</v>
+        <v>172</v>
       </c>
       <c r="I251" s="22">
         <v>1000</v>
@@ -14042,7 +14060,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C252" s="17">
         <v>0</v>
@@ -14051,10 +14069,10 @@
         <v>0</v>
       </c>
       <c r="E252" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F252" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G252" s="22">
         <v>1000</v>
@@ -14092,7 +14110,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C253" s="17">
         <v>0</v>
@@ -14101,10 +14119,10 @@
         <v>0</v>
       </c>
       <c r="E253" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F253" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="F253" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="G253" s="22">
         <v>1000</v>
@@ -14151,10 +14169,10 @@
         <v>0</v>
       </c>
       <c r="E254" s="10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F254" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G254" s="22">
         <v>1000</v>
@@ -14192,7 +14210,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C255" s="17">
         <v>0</v>
@@ -14201,10 +14219,10 @@
         <v>0</v>
       </c>
       <c r="E255" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F255" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G255" s="22">
         <v>1000</v>
@@ -14242,7 +14260,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C256" s="17">
         <v>0</v>
@@ -14251,10 +14269,10 @@
         <v>0</v>
       </c>
       <c r="E256" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F256" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G256" s="22">
         <v>1000</v>
@@ -14292,7 +14310,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C257" s="17">
         <v>0</v>
@@ -14301,10 +14319,10 @@
         <v>0</v>
       </c>
       <c r="E257" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F257" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G257" s="22">
         <v>1000</v>
@@ -14342,7 +14360,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C258" s="17">
         <v>0</v>
@@ -14351,10 +14369,10 @@
         <v>0</v>
       </c>
       <c r="E258" s="10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F258" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G258" s="22">
         <v>1000</v>
@@ -14392,7 +14410,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C259" s="17">
         <v>0</v>
@@ -14401,10 +14419,10 @@
         <v>0</v>
       </c>
       <c r="E259" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F259" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G259" s="22">
         <v>1000</v>
@@ -14442,7 +14460,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C260" s="17">
         <v>0</v>
@@ -14451,10 +14469,10 @@
         <v>0</v>
       </c>
       <c r="E260" s="10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F260" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G260" s="22">
         <v>1000</v>
@@ -14492,7 +14510,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C261" s="19">
         <v>0</v>
@@ -14501,10 +14519,10 @@
         <v>0</v>
       </c>
       <c r="E261" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F261" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="F261" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="G261" s="21">
         <v>1000</v>
@@ -14542,7 +14560,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C262" s="19">
         <v>0</v>
@@ -14551,10 +14569,10 @@
         <v>0</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G262" s="21">
         <v>1000</v>
@@ -14592,7 +14610,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C263" s="19">
         <v>0</v>
@@ -14601,10 +14619,10 @@
         <v>0</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G263" s="21">
         <v>1000</v>
@@ -14651,10 +14669,10 @@
         <v>0</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G264" s="21">
         <v>1000</v>
@@ -14692,7 +14710,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C265" s="19">
         <v>0</v>
@@ -14701,10 +14719,10 @@
         <v>0</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G265" s="21">
         <v>1000</v>
@@ -14742,7 +14760,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C266" s="19">
         <v>0</v>
@@ -14751,10 +14769,10 @@
         <v>0</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G266" s="21">
         <v>1000</v>
@@ -14792,19 +14810,19 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C267" s="19">
+        <v>0</v>
+      </c>
+      <c r="D267" s="20">
+        <v>0</v>
+      </c>
+      <c r="E267" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C267" s="19">
-        <v>0</v>
-      </c>
-      <c r="D267" s="20">
-        <v>0</v>
-      </c>
-      <c r="E267" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F267" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G267" s="21">
         <v>1000</v>
@@ -14842,7 +14860,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C268" s="19">
         <v>0</v>
@@ -14851,10 +14869,10 @@
         <v>0</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G268" s="21">
         <v>1000</v>
@@ -14892,7 +14910,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C269" s="19">
         <v>0</v>
@@ -14901,10 +14919,10 @@
         <v>0</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G269" s="21">
         <v>1000</v>
@@ -14942,19 +14960,19 @@
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C270" s="19">
+        <v>0</v>
+      </c>
+      <c r="D270" s="20">
+        <v>0</v>
+      </c>
+      <c r="E270" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C270" s="19">
-        <v>0</v>
-      </c>
-      <c r="D270" s="20">
-        <v>0</v>
-      </c>
-      <c r="E270" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="F270" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G270" s="21">
         <v>1000</v>
@@ -14992,7 +15010,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C271" s="17">
         <v>0</v>
@@ -15004,7 +15022,7 @@
         <v>0</v>
       </c>
       <c r="F271" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G271" s="22">
         <v>1000</v>
@@ -15042,7 +15060,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C272" s="17">
         <v>0</v>
@@ -15051,10 +15069,10 @@
         <v>0</v>
       </c>
       <c r="E272" s="10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F272" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G272" s="22">
         <v>1000</v>
@@ -15092,7 +15110,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C273" s="17">
         <v>0</v>
@@ -15101,10 +15119,10 @@
         <v>0</v>
       </c>
       <c r="E273" s="8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F273" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G273" s="22">
         <v>1000</v>
@@ -15142,19 +15160,19 @@
         <v>273</v>
       </c>
       <c r="B274" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C274" s="17">
+        <v>0</v>
+      </c>
+      <c r="D274" s="18">
+        <v>0</v>
+      </c>
+      <c r="E274" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F274" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="C274" s="17">
-        <v>0</v>
-      </c>
-      <c r="D274" s="18">
-        <v>0</v>
-      </c>
-      <c r="E274" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F274" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="G274" s="22">
         <v>1000</v>
@@ -15192,7 +15210,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C275" s="17">
         <v>0</v>
@@ -15201,10 +15219,10 @@
         <v>0</v>
       </c>
       <c r="E275" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F275" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G275" s="22">
         <v>1000</v>
@@ -15242,7 +15260,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C276" s="17">
         <v>0</v>
@@ -15251,10 +15269,10 @@
         <v>0</v>
       </c>
       <c r="E276" s="10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F276" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G276" s="22">
         <v>1000</v>
@@ -15292,19 +15310,19 @@
         <v>276</v>
       </c>
       <c r="B277" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C277" s="17">
+        <v>0</v>
+      </c>
+      <c r="D277" s="18">
+        <v>0</v>
+      </c>
+      <c r="E277" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C277" s="17">
-        <v>0</v>
-      </c>
-      <c r="D277" s="18">
-        <v>0</v>
-      </c>
-      <c r="E277" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="F277" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G277" s="22">
         <v>1000</v>
@@ -15342,7 +15360,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C278" s="17">
         <v>0</v>
@@ -15351,10 +15369,10 @@
         <v>0</v>
       </c>
       <c r="E278" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F278" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G278" s="22">
         <v>1000</v>
@@ -15392,7 +15410,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C279" s="17">
         <v>0</v>
@@ -15401,10 +15419,10 @@
         <v>0</v>
       </c>
       <c r="E279" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F279" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G279" s="22">
         <v>1000</v>
@@ -15442,7 +15460,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C280" s="17">
         <v>0</v>
@@ -15451,10 +15469,10 @@
         <v>0</v>
       </c>
       <c r="E280" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F280" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G280" s="22">
         <v>1000</v>
@@ -15492,7 +15510,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C281" s="19">
         <v>0</v>
@@ -15501,10 +15519,10 @@
         <v>0</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G281" s="21">
         <v>1000</v>
@@ -15542,7 +15560,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C282" s="19">
         <v>0</v>
@@ -15551,10 +15569,10 @@
         <v>0</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G282" s="21">
         <v>1000</v>
@@ -15592,7 +15610,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C283" s="19">
         <v>0</v>
@@ -15601,10 +15619,10 @@
         <v>0</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G283" s="21">
         <v>1000</v>
@@ -15642,19 +15660,19 @@
         <v>283</v>
       </c>
       <c r="B284" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C284" s="19">
+        <v>0</v>
+      </c>
+      <c r="D284" s="20">
+        <v>0</v>
+      </c>
+      <c r="E284" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F284" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C284" s="19">
-        <v>0</v>
-      </c>
-      <c r="D284" s="20">
-        <v>0</v>
-      </c>
-      <c r="E284" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F284" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="G284" s="21">
         <v>1000</v>
@@ -15692,7 +15710,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C285" s="19">
         <v>0</v>
@@ -15704,7 +15722,7 @@
         <v>0</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G285" s="21">
         <v>1000</v>
@@ -15742,7 +15760,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C286" s="19">
         <v>0</v>
@@ -15751,10 +15769,10 @@
         <v>0</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G286" s="21">
         <v>1000</v>
@@ -15792,7 +15810,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C287" s="19">
         <v>0</v>
@@ -15801,10 +15819,10 @@
         <v>0</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G287" s="21">
         <v>1000</v>
@@ -15842,7 +15860,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C288" s="19">
         <v>0</v>
@@ -15851,10 +15869,10 @@
         <v>0</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G288" s="21">
         <v>1000</v>
@@ -15892,7 +15910,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C289" s="19">
         <v>0</v>
@@ -15901,10 +15919,10 @@
         <v>0</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G289" s="21">
         <v>1000</v>
@@ -15942,7 +15960,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C290" s="19">
         <v>0</v>
@@ -15951,10 +15969,10 @@
         <v>0</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G290" s="21">
         <v>1000</v>
@@ -15992,7 +16010,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C291" s="17">
         <v>0</v>
@@ -16001,10 +16019,10 @@
         <v>0</v>
       </c>
       <c r="E291" s="8" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F291" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G291" s="22">
         <v>1000</v>
@@ -16042,7 +16060,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C292" s="17">
         <v>0</v>
@@ -16051,10 +16069,10 @@
         <v>0</v>
       </c>
       <c r="E292" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F292" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G292" s="22">
         <v>1000</v>
@@ -16092,7 +16110,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C293" s="17">
         <v>0</v>
@@ -16101,10 +16119,10 @@
         <v>0</v>
       </c>
       <c r="E293" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F293" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G293" s="22">
         <v>1000</v>
@@ -16151,10 +16169,10 @@
         <v>0</v>
       </c>
       <c r="E294" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F294" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G294" s="22">
         <v>1000</v>
@@ -16192,19 +16210,19 @@
         <v>294</v>
       </c>
       <c r="B295" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C295" s="17">
+        <v>0</v>
+      </c>
+      <c r="D295" s="18">
+        <v>0</v>
+      </c>
+      <c r="E295" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C295" s="17">
-        <v>0</v>
-      </c>
-      <c r="D295" s="18">
-        <v>0</v>
-      </c>
-      <c r="E295" s="8" t="s">
-        <v>1</v>
-      </c>
       <c r="F295" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G295" s="22">
         <v>1000</v>
@@ -16242,7 +16260,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C296" s="17">
         <v>0</v>
@@ -16251,10 +16269,10 @@
         <v>0</v>
       </c>
       <c r="E296" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F296" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="F296" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="G296" s="22">
         <v>1000</v>
@@ -16292,7 +16310,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C297" s="17">
         <v>0</v>
@@ -16301,10 +16319,10 @@
         <v>0</v>
       </c>
       <c r="E297" s="8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F297" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G297" s="22">
         <v>1000</v>
@@ -16342,7 +16360,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C298" s="17">
         <v>0</v>
@@ -16351,10 +16369,10 @@
         <v>0</v>
       </c>
       <c r="E298" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F298" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G298" s="22">
         <v>1000</v>
@@ -16392,7 +16410,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C299" s="17">
         <v>0</v>
@@ -16401,10 +16419,10 @@
         <v>0</v>
       </c>
       <c r="E299" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F299" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G299" s="22">
         <v>1000</v>
@@ -16442,7 +16460,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C300" s="17">
         <v>0</v>
@@ -16451,10 +16469,10 @@
         <v>0</v>
       </c>
       <c r="E300" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F300" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G300" s="22">
         <v>1000</v>
@@ -16492,7 +16510,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C301" s="19">
         <v>0</v>
@@ -16501,10 +16519,10 @@
         <v>0</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G301" s="21">
         <v>1000</v>
@@ -16542,7 +16560,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C302" s="19">
         <v>0</v>
@@ -16551,10 +16569,10 @@
         <v>0</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G302" s="21">
         <v>1000</v>
@@ -16592,7 +16610,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C303" s="19">
         <v>0</v>
@@ -16601,10 +16619,10 @@
         <v>0</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G303" s="21">
         <v>1000</v>
@@ -16642,19 +16660,19 @@
         <v>303</v>
       </c>
       <c r="B304" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C304" s="19">
+        <v>0</v>
+      </c>
+      <c r="D304" s="20">
+        <v>0</v>
+      </c>
+      <c r="E304" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F304" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C304" s="19">
-        <v>0</v>
-      </c>
-      <c r="D304" s="20">
-        <v>0</v>
-      </c>
-      <c r="E304" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F304" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="G304" s="21">
         <v>1000</v>
@@ -16692,7 +16710,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C305" s="19">
         <v>0</v>
@@ -16701,10 +16719,10 @@
         <v>0</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G305" s="21">
         <v>1000</v>
@@ -16742,7 +16760,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C306" s="19">
         <v>0</v>
@@ -16751,10 +16769,10 @@
         <v>0</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G306" s="21">
         <v>1000</v>
@@ -16792,7 +16810,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C307" s="19">
         <v>0</v>
@@ -16801,10 +16819,10 @@
         <v>0</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G307" s="21">
         <v>1000</v>
@@ -16842,7 +16860,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C308" s="19">
         <v>0</v>
@@ -16854,7 +16872,7 @@
         <v>0</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G308" s="21">
         <v>1000</v>
@@ -16892,7 +16910,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C309" s="19">
         <v>0</v>
@@ -16901,10 +16919,10 @@
         <v>0</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G309" s="21">
         <v>1000</v>
@@ -16942,7 +16960,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C310" s="19">
         <v>0</v>
@@ -16951,10 +16969,10 @@
         <v>0</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G310" s="21">
         <v>1000</v>
@@ -16992,7 +17010,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C311" s="17">
         <v>0</v>
@@ -17001,10 +17019,10 @@
         <v>0</v>
       </c>
       <c r="E311" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F311" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G311" s="22">
         <v>1000</v>
@@ -17042,7 +17060,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C312" s="17">
         <v>0</v>
@@ -17051,10 +17069,10 @@
         <v>0</v>
       </c>
       <c r="E312" s="10" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F312" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G312" s="22">
         <v>1000</v>
@@ -17092,7 +17110,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C313" s="17">
         <v>0</v>
@@ -17101,10 +17119,10 @@
         <v>0</v>
       </c>
       <c r="E313" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F313" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G313" s="22">
         <v>1000</v>
@@ -17151,10 +17169,10 @@
         <v>0</v>
       </c>
       <c r="E314" s="10" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F314" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G314" s="22">
         <v>1000</v>
@@ -17192,7 +17210,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C315" s="17">
         <v>0</v>
@@ -17201,10 +17219,10 @@
         <v>0</v>
       </c>
       <c r="E315" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F315" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G315" s="22">
         <v>1000</v>
@@ -17242,7 +17260,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C316" s="17">
         <v>0</v>
@@ -17251,10 +17269,10 @@
         <v>0</v>
       </c>
       <c r="E316" s="10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F316" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G316" s="22">
         <v>1000</v>
@@ -17292,7 +17310,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C317" s="17">
         <v>0</v>
@@ -17301,10 +17319,10 @@
         <v>0</v>
       </c>
       <c r="E317" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F317" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G317" s="22">
         <v>1000</v>
@@ -17342,7 +17360,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C318" s="17">
         <v>0</v>
@@ -17351,10 +17369,10 @@
         <v>0</v>
       </c>
       <c r="E318" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F318" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="F318" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="G318" s="22">
         <v>1000</v>
@@ -17392,7 +17410,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C319" s="17">
         <v>0</v>
@@ -17401,10 +17419,10 @@
         <v>0</v>
       </c>
       <c r="E319" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F319" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G319" s="22">
         <v>1000</v>
@@ -17442,7 +17460,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C320" s="17">
         <v>0</v>
@@ -17451,10 +17469,10 @@
         <v>0</v>
       </c>
       <c r="E320" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F320" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G320" s="22">
         <v>1000</v>
@@ -17492,7 +17510,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C321" s="19">
         <v>0</v>
@@ -17501,10 +17519,10 @@
         <v>0</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G321" s="21">
         <v>1000</v>
@@ -17542,19 +17560,19 @@
         <v>321</v>
       </c>
       <c r="B322" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C322" s="19">
+        <v>0</v>
+      </c>
+      <c r="D322" s="20">
+        <v>0</v>
+      </c>
+      <c r="E322" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C322" s="19">
-        <v>0</v>
-      </c>
-      <c r="D322" s="20">
-        <v>0</v>
-      </c>
-      <c r="E322" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="F322" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G322" s="21">
         <v>1000</v>
@@ -17592,7 +17610,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C323" s="19">
         <v>0</v>
@@ -17601,10 +17619,10 @@
         <v>0</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G323" s="21">
         <v>1000</v>
@@ -17651,10 +17669,10 @@
         <v>0</v>
       </c>
       <c r="E324" s="5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G324" s="21">
         <v>1000</v>
@@ -17692,7 +17710,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C325" s="19">
         <v>0</v>
@@ -17701,10 +17719,10 @@
         <v>0</v>
       </c>
       <c r="E325" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F325" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="F325" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="G325" s="21">
         <v>1000</v>
@@ -17742,7 +17760,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C326" s="19">
         <v>0</v>
@@ -17751,10 +17769,10 @@
         <v>0</v>
       </c>
       <c r="E326" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G326" s="21">
         <v>1000</v>
@@ -17792,7 +17810,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C327" s="19">
         <v>0</v>
@@ -17801,10 +17819,10 @@
         <v>0</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G327" s="21">
         <v>1000</v>
@@ -17842,7 +17860,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C328" s="19">
         <v>0</v>
@@ -17851,10 +17869,10 @@
         <v>0</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G328" s="21">
         <v>1000</v>
@@ -17892,7 +17910,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C329" s="19">
         <v>0</v>
@@ -17901,10 +17919,10 @@
         <v>0</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G329" s="21">
         <v>1000</v>
@@ -17942,7 +17960,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C330" s="19">
         <v>0</v>
@@ -17951,10 +17969,10 @@
         <v>0</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G330" s="21">
         <v>1000</v>
@@ -17992,7 +18010,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C331" s="17">
         <v>0</v>
@@ -18001,10 +18019,10 @@
         <v>0</v>
       </c>
       <c r="E331" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F331" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G331" s="22">
         <v>1000</v>
@@ -18042,7 +18060,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C332" s="17">
         <v>0</v>
@@ -18051,10 +18069,10 @@
         <v>0</v>
       </c>
       <c r="E332" s="10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F332" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G332" s="22">
         <v>1000</v>
@@ -18092,7 +18110,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C333" s="17">
         <v>0</v>
@@ -18101,10 +18119,10 @@
         <v>0</v>
       </c>
       <c r="E333" s="8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F333" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G333" s="22">
         <v>1000</v>
@@ -18142,19 +18160,19 @@
         <v>333</v>
       </c>
       <c r="B334" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C334" s="17">
+        <v>0</v>
+      </c>
+      <c r="D334" s="18">
+        <v>0</v>
+      </c>
+      <c r="E334" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F334" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="C334" s="17">
-        <v>0</v>
-      </c>
-      <c r="D334" s="18">
-        <v>0</v>
-      </c>
-      <c r="E334" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F334" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="G334" s="22">
         <v>1000</v>
@@ -18192,7 +18210,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C335" s="17">
         <v>0</v>
@@ -18201,10 +18219,10 @@
         <v>0</v>
       </c>
       <c r="E335" s="8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F335" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G335" s="22">
         <v>1000</v>
@@ -18242,7 +18260,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C336" s="17">
         <v>0</v>
@@ -18251,10 +18269,10 @@
         <v>0</v>
       </c>
       <c r="E336" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F336" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G336" s="22">
         <v>1000</v>
@@ -18292,7 +18310,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C337" s="17">
         <v>0</v>
@@ -18301,10 +18319,10 @@
         <v>0</v>
       </c>
       <c r="E337" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F337" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G337" s="22">
         <v>1000</v>
@@ -18342,7 +18360,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C338" s="17">
         <v>0</v>
@@ -18351,10 +18369,10 @@
         <v>0</v>
       </c>
       <c r="E338" s="10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F338" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G338" s="22">
         <v>1000</v>
@@ -18392,7 +18410,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C339" s="17">
         <v>0</v>
@@ -18401,10 +18419,10 @@
         <v>0</v>
       </c>
       <c r="E339" s="8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F339" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G339" s="22">
         <v>1000</v>
@@ -18442,7 +18460,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C340" s="17">
         <v>0</v>
@@ -18454,7 +18472,7 @@
         <v>0</v>
       </c>
       <c r="F340" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G340" s="22">
         <v>1000</v>
@@ -18492,19 +18510,19 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C341" s="19">
+        <v>0</v>
+      </c>
+      <c r="D341" s="20">
+        <v>0</v>
+      </c>
+      <c r="E341" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C341" s="19">
-        <v>0</v>
-      </c>
-      <c r="D341" s="20">
-        <v>0</v>
-      </c>
-      <c r="E341" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="F341" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G341" s="21">
         <v>1000</v>
@@ -18542,7 +18560,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C342" s="19">
         <v>0</v>
@@ -18551,10 +18569,10 @@
         <v>0</v>
       </c>
       <c r="E342" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F342" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="F342" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="G342" s="21">
         <v>1000</v>
@@ -18592,7 +18610,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C343" s="19">
         <v>0</v>
@@ -18601,10 +18619,10 @@
         <v>0</v>
       </c>
       <c r="E343" s="3" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G343" s="21">
         <v>1000</v>
@@ -18651,10 +18669,10 @@
         <v>0</v>
       </c>
       <c r="E344" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G344" s="21">
         <v>1000</v>
@@ -18692,7 +18710,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C345" s="19">
         <v>0</v>
@@ -18701,10 +18719,10 @@
         <v>0</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F345" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G345" s="21">
         <v>1000</v>
@@ -18742,19 +18760,19 @@
         <v>345</v>
       </c>
       <c r="B346" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C346" s="19">
+        <v>0</v>
+      </c>
+      <c r="D346" s="20">
+        <v>0</v>
+      </c>
+      <c r="E346" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C346" s="19">
-        <v>0</v>
-      </c>
-      <c r="D346" s="20">
-        <v>0</v>
-      </c>
-      <c r="E346" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="F346" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G346" s="21">
         <v>1000</v>
@@ -18792,7 +18810,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C347" s="19">
         <v>0</v>
@@ -18801,10 +18819,10 @@
         <v>0</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F347" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G347" s="21">
         <v>1000</v>
@@ -18842,7 +18860,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C348" s="19">
         <v>0</v>
@@ -18851,10 +18869,10 @@
         <v>0</v>
       </c>
       <c r="E348" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F348" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G348" s="21">
         <v>1000</v>
@@ -18892,7 +18910,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C349" s="19">
         <v>0</v>
@@ -18901,10 +18919,10 @@
         <v>0</v>
       </c>
       <c r="E349" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F349" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G349" s="21">
         <v>1000</v>
@@ -18942,7 +18960,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C350" s="19">
         <v>0</v>
@@ -18951,10 +18969,10 @@
         <v>0</v>
       </c>
       <c r="E350" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F350" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G350" s="21">
         <v>1000</v>
@@ -18992,7 +19010,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C351" s="17">
         <v>0</v>
@@ -19001,10 +19019,10 @@
         <v>0</v>
       </c>
       <c r="E351" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F351" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G351" s="22">
         <v>1000</v>
@@ -19042,7 +19060,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C352" s="17">
         <v>0</v>
@@ -19051,10 +19069,10 @@
         <v>0</v>
       </c>
       <c r="E352" s="10" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F352" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G352" s="22">
         <v>1000</v>
@@ -19092,7 +19110,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C353" s="17">
         <v>0</v>
@@ -19101,10 +19119,10 @@
         <v>0</v>
       </c>
       <c r="E353" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F353" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G353" s="22">
         <v>1000</v>
@@ -19142,19 +19160,19 @@
         <v>353</v>
       </c>
       <c r="B354" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C354" s="17">
+        <v>0</v>
+      </c>
+      <c r="D354" s="18">
+        <v>0</v>
+      </c>
+      <c r="E354" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F354" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="C354" s="17">
-        <v>0</v>
-      </c>
-      <c r="D354" s="18">
-        <v>0</v>
-      </c>
-      <c r="E354" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F354" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="G354" s="22">
         <v>1000</v>
@@ -19192,7 +19210,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C355" s="17">
         <v>0</v>
@@ -19201,10 +19219,10 @@
         <v>0</v>
       </c>
       <c r="E355" s="8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F355" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G355" s="22">
         <v>1000</v>
@@ -19242,7 +19260,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C356" s="17">
         <v>0</v>
@@ -19251,10 +19269,10 @@
         <v>0</v>
       </c>
       <c r="E356" s="10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F356" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G356" s="22">
         <v>1000</v>
@@ -19292,7 +19310,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C357" s="17">
         <v>0</v>
@@ -19301,10 +19319,10 @@
         <v>0</v>
       </c>
       <c r="E357" s="8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F357" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G357" s="22">
         <v>1000</v>
@@ -19342,7 +19360,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C358" s="17">
         <v>0</v>
@@ -19351,10 +19369,10 @@
         <v>0</v>
       </c>
       <c r="E358" s="10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F358" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G358" s="22">
         <v>1000</v>
@@ -19392,7 +19410,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C359" s="17">
         <v>0</v>
@@ -19404,7 +19422,7 @@
         <v>0</v>
       </c>
       <c r="F359" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G359" s="22">
         <v>1000</v>
@@ -19442,7 +19460,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C360" s="17">
         <v>0</v>
@@ -19451,10 +19469,10 @@
         <v>0</v>
       </c>
       <c r="E360" s="10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F360" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G360" s="22">
         <v>1000</v>
@@ -19492,7 +19510,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C361" s="19">
         <v>0</v>
@@ -19501,10 +19519,10 @@
         <v>0</v>
       </c>
       <c r="E361" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F361" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G361" s="21">
         <v>1000</v>
@@ -19542,7 +19560,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C362" s="19">
         <v>0</v>
@@ -19551,10 +19569,10 @@
         <v>0</v>
       </c>
       <c r="E362" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F362" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G362" s="21">
         <v>1000</v>
@@ -19592,7 +19610,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C363" s="19">
         <v>0</v>
@@ -19601,10 +19619,10 @@
         <v>0</v>
       </c>
       <c r="E363" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F363" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G363" s="21">
         <v>1000</v>
@@ -19651,10 +19669,10 @@
         <v>0</v>
       </c>
       <c r="E364" s="5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F364" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G364" s="21">
         <v>1000</v>
@@ -19692,7 +19710,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C365" s="19">
         <v>0</v>
@@ -19701,10 +19719,10 @@
         <v>0</v>
       </c>
       <c r="E365" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F365" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G365" s="21">
         <v>1000</v>
@@ -19742,7 +19760,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C366" s="19">
         <v>0</v>
@@ -19751,10 +19769,10 @@
         <v>0</v>
       </c>
       <c r="E366" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F366" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G366" s="21">
         <v>1000</v>
@@ -19792,7 +19810,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C367" s="19">
         <v>0</v>
@@ -19801,10 +19819,10 @@
         <v>0</v>
       </c>
       <c r="E367" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F367" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G367" s="21">
         <v>1000</v>
@@ -19842,7 +19860,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C368" s="19">
         <v>0</v>
@@ -19851,10 +19869,10 @@
         <v>0</v>
       </c>
       <c r="E368" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F368" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G368" s="21">
         <v>1000</v>
@@ -19892,7 +19910,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C369" s="19">
         <v>0</v>
@@ -19901,10 +19919,10 @@
         <v>0</v>
       </c>
       <c r="E369" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F369" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G369" s="21">
         <v>1000</v>
@@ -19942,7 +19960,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C370" s="19">
         <v>0</v>
@@ -19951,10 +19969,10 @@
         <v>0</v>
       </c>
       <c r="E370" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F370" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="F370" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="G370" s="21">
         <v>1000</v>
@@ -19992,7 +20010,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C371" s="17">
         <v>0</v>
@@ -20001,10 +20019,10 @@
         <v>0</v>
       </c>
       <c r="E371" s="8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F371" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G371" s="22">
         <v>1000</v>
@@ -20042,7 +20060,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C372" s="17">
         <v>0</v>
@@ -20051,10 +20069,10 @@
         <v>0</v>
       </c>
       <c r="E372" s="10" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F372" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G372" s="22">
         <v>1000</v>
@@ -20092,7 +20110,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C373" s="17">
         <v>0</v>
@@ -20101,10 +20119,10 @@
         <v>0</v>
       </c>
       <c r="E373" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F373" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G373" s="22">
         <v>1000</v>
@@ -20142,19 +20160,19 @@
         <v>373</v>
       </c>
       <c r="B374" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C374" s="17">
+        <v>0</v>
+      </c>
+      <c r="D374" s="18">
+        <v>0</v>
+      </c>
+      <c r="E374" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F374" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="C374" s="17">
-        <v>0</v>
-      </c>
-      <c r="D374" s="18">
-        <v>0</v>
-      </c>
-      <c r="E374" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F374" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="G374" s="22">
         <v>1000</v>
@@ -20192,7 +20210,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C375" s="17">
         <v>0</v>
@@ -20201,10 +20219,10 @@
         <v>0</v>
       </c>
       <c r="E375" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F375" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G375" s="22">
         <v>1000</v>
@@ -20242,7 +20260,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C376" s="17">
         <v>0</v>
@@ -20254,7 +20272,7 @@
         <v>0</v>
       </c>
       <c r="F376" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G376" s="22">
         <v>1000</v>
@@ -20292,7 +20310,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C377" s="17">
         <v>0</v>
@@ -20301,10 +20319,10 @@
         <v>0</v>
       </c>
       <c r="E377" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F377" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G377" s="22">
         <v>1000</v>
@@ -20342,7 +20360,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C378" s="17">
         <v>0</v>
@@ -20351,10 +20369,10 @@
         <v>0</v>
       </c>
       <c r="E378" s="10" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F378" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G378" s="22">
         <v>1000</v>
@@ -20392,7 +20410,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C379" s="17">
         <v>0</v>
@@ -20401,10 +20419,10 @@
         <v>0</v>
       </c>
       <c r="E379" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F379" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G379" s="22">
         <v>1000</v>
@@ -20442,7 +20460,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C380" s="17">
         <v>0</v>
@@ -20451,10 +20469,10 @@
         <v>0</v>
       </c>
       <c r="E380" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F380" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G380" s="22">
         <v>1000</v>
@@ -20489,661 +20507,671 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B380">
-    <cfRule type="cellIs" dxfId="131" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="241" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F380">
+    <cfRule type="cellIs" dxfId="132" priority="239" operator="equal">
+      <formula>$J$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E380">
+    <cfRule type="cellIs" dxfId="131" priority="238" operator="equal">
+      <formula>$J$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:P1">
     <cfRule type="cellIs" dxfId="130" priority="237" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E380">
+  <conditionalFormatting sqref="G3:J3">
     <cfRule type="cellIs" dxfId="129" priority="236" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:P1">
-    <cfRule type="cellIs" dxfId="128" priority="235" operator="equal">
+  <conditionalFormatting sqref="G11:P20">
+    <cfRule type="cellIs" dxfId="128" priority="234" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:J3">
-    <cfRule type="cellIs" dxfId="127" priority="234" operator="equal">
+  <conditionalFormatting sqref="G21:P30">
+    <cfRule type="cellIs" dxfId="127" priority="233" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:P20">
+  <conditionalFormatting sqref="G22:P30">
     <cfRule type="cellIs" dxfId="126" priority="232" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21:P30">
-    <cfRule type="cellIs" dxfId="125" priority="231" operator="equal">
-      <formula>$J$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22:P30">
-    <cfRule type="cellIs" dxfId="124" priority="230" operator="equal">
-      <formula>$J$4</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G4:K4">
-    <cfRule type="cellIs" dxfId="123" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="178" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:J5">
-    <cfRule type="cellIs" dxfId="122" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="177" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:P2">
+    <cfRule type="cellIs" dxfId="123" priority="124" operator="equal">
+      <formula>$J$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:P3">
+    <cfRule type="cellIs" dxfId="122" priority="123" operator="equal">
+      <formula>$J$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:P4">
     <cfRule type="cellIs" dxfId="121" priority="122" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:P3">
+  <conditionalFormatting sqref="K5:P5">
     <cfRule type="cellIs" dxfId="120" priority="121" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:P4">
+  <conditionalFormatting sqref="G6:P10">
     <cfRule type="cellIs" dxfId="119" priority="120" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:P5">
+  <conditionalFormatting sqref="G31:P40">
     <cfRule type="cellIs" dxfId="118" priority="119" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:P10">
+  <conditionalFormatting sqref="G41:P50">
     <cfRule type="cellIs" dxfId="117" priority="118" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31:P40">
+  <conditionalFormatting sqref="G42:P50">
     <cfRule type="cellIs" dxfId="116" priority="117" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41:P50">
+  <conditionalFormatting sqref="G51:P60">
     <cfRule type="cellIs" dxfId="115" priority="116" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42:P50">
+  <conditionalFormatting sqref="G61:P70">
     <cfRule type="cellIs" dxfId="114" priority="115" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51:P60">
+  <conditionalFormatting sqref="G62:P70">
     <cfRule type="cellIs" dxfId="113" priority="114" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G61:P70">
+  <conditionalFormatting sqref="G71:P80">
     <cfRule type="cellIs" dxfId="112" priority="113" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G62:P70">
+  <conditionalFormatting sqref="G81:P90">
     <cfRule type="cellIs" dxfId="111" priority="112" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G71:P80">
+  <conditionalFormatting sqref="G82:P90">
     <cfRule type="cellIs" dxfId="110" priority="111" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G81:P90">
+  <conditionalFormatting sqref="G91:P100">
     <cfRule type="cellIs" dxfId="109" priority="110" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G82:P90">
+  <conditionalFormatting sqref="G101:P110">
     <cfRule type="cellIs" dxfId="108" priority="109" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G91:P100">
+  <conditionalFormatting sqref="G102:P110">
     <cfRule type="cellIs" dxfId="107" priority="108" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G101:P110">
+  <conditionalFormatting sqref="G111:P120">
     <cfRule type="cellIs" dxfId="106" priority="107" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G102:P110">
+  <conditionalFormatting sqref="G121:P130">
     <cfRule type="cellIs" dxfId="105" priority="106" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G111:P120">
+  <conditionalFormatting sqref="G122:P130">
     <cfRule type="cellIs" dxfId="104" priority="105" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G121:P130">
+  <conditionalFormatting sqref="G131:P140">
     <cfRule type="cellIs" dxfId="103" priority="104" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G122:P130">
+  <conditionalFormatting sqref="G141:P150">
     <cfRule type="cellIs" dxfId="102" priority="103" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G131:P140">
+  <conditionalFormatting sqref="G142:P150">
     <cfRule type="cellIs" dxfId="101" priority="102" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G141:P150">
+  <conditionalFormatting sqref="G151:P160">
     <cfRule type="cellIs" dxfId="100" priority="101" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G142:P150">
+  <conditionalFormatting sqref="G161:P170">
     <cfRule type="cellIs" dxfId="99" priority="100" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G151:P160">
+  <conditionalFormatting sqref="G162:P170">
     <cfRule type="cellIs" dxfId="98" priority="99" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G161:P170">
+  <conditionalFormatting sqref="L180:P180 H171:P171 K172:P172 J173:P173 K174:P174 I175:P175 M176:P176 H177:P177 L178:P178 I179:P179">
     <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G162:P170">
+  <conditionalFormatting sqref="G187:P187 J181:P182 M183:P183 J184:P184 I185:P185 H186:P186 H190:P190 H188:P188 J189:P189">
     <cfRule type="cellIs" dxfId="96" priority="97" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L180:P180 H171:P171 K172:P172 J173:P173 K174:P174 I175:P175 M176:P176 H177:P177 L178:P178 I179:P179">
+  <conditionalFormatting sqref="G187:P187 J182:P182 M183:P183 J184:P184 I185:P185 H186:P186 H190:P190 H188:P188 J189:P189">
     <cfRule type="cellIs" dxfId="95" priority="96" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G187:P187 J181:P182 M183:P183 J184:P184 I185:P185 H186:P186 H190:P190 H188:P188 J189:P189">
+  <conditionalFormatting sqref="K191:P191 L192:P192 H193:P194 K195:P195 J196:P197 H198:P200">
     <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G187:P187 J182:P182 M183:P183 J184:P184 I185:P185 H186:P186 H190:P190 H188:P188 J189:P189">
+  <conditionalFormatting sqref="J210:P210 L201:P201 H202:P202 J204:P204 I205:P205 H206:P206 J207:P208 I209:P209 I203:P203">
     <cfRule type="cellIs" dxfId="93" priority="94" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K191:P191 L192:P192 H193:P194 K195:P195 J196:P197 H198:P200">
+  <conditionalFormatting sqref="J210:P210 H202:P202 J204:P204 I205:P205 H206:P206 J207:P208 I209:P209 I203:P203">
     <cfRule type="cellIs" dxfId="92" priority="93" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J210:P210 L201:P201 H202:P203 J204:P204 I205:P205 H206:P206 J207:P208 I209:P209">
+  <conditionalFormatting sqref="G215:P215 H211:P211 L212:P212 J213:P213 H214:P214 J216:P216 H217:P217 I218:P218 H219:P220">
     <cfRule type="cellIs" dxfId="91" priority="92" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J210:P210 H202:P203 J204:P204 I205:P205 H206:P206 J207:P208 I209:P209">
+  <conditionalFormatting sqref="G221:P230">
     <cfRule type="cellIs" dxfId="90" priority="91" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G215:P215 H211:P211 L212:P212 J213:P213 H214:P214 J216:P216 H217:P217 I218:P218 H219:P220">
+  <conditionalFormatting sqref="G222:P230">
     <cfRule type="cellIs" dxfId="89" priority="90" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G221:P230">
+  <conditionalFormatting sqref="G231:P240">
     <cfRule type="cellIs" dxfId="88" priority="89" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G222:P230">
+  <conditionalFormatting sqref="G241:P250">
     <cfRule type="cellIs" dxfId="87" priority="88" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G231:P240">
+  <conditionalFormatting sqref="G242:P250">
     <cfRule type="cellIs" dxfId="86" priority="87" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G241:P250">
+  <conditionalFormatting sqref="G251:P260">
     <cfRule type="cellIs" dxfId="85" priority="86" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G242:P250">
+  <conditionalFormatting sqref="G261:P270">
     <cfRule type="cellIs" dxfId="84" priority="85" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G251:P260">
+  <conditionalFormatting sqref="G262:P270">
     <cfRule type="cellIs" dxfId="83" priority="84" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G261:P270">
+  <conditionalFormatting sqref="G271:P280">
     <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G262:P270">
+  <conditionalFormatting sqref="G281:P290">
     <cfRule type="cellIs" dxfId="81" priority="82" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G271:P280">
+  <conditionalFormatting sqref="G282:P290">
     <cfRule type="cellIs" dxfId="80" priority="81" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G281:P290">
+  <conditionalFormatting sqref="G291:P300">
     <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G282:P290">
+  <conditionalFormatting sqref="G301:P310">
     <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G291:P300">
+  <conditionalFormatting sqref="G302:P310">
     <cfRule type="cellIs" dxfId="77" priority="78" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G301:P310">
+  <conditionalFormatting sqref="G311:P320">
     <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G302:P310">
+  <conditionalFormatting sqref="G321:P330">
     <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G311:P320">
+  <conditionalFormatting sqref="G322:P330">
     <cfRule type="cellIs" dxfId="74" priority="75" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G321:P330">
+  <conditionalFormatting sqref="G331:P340">
     <cfRule type="cellIs" dxfId="73" priority="74" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G322:P330">
+  <conditionalFormatting sqref="G341:P350">
     <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G331:P340">
+  <conditionalFormatting sqref="G342:P350">
     <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G341:P350">
+  <conditionalFormatting sqref="G351:P360">
     <cfRule type="cellIs" dxfId="70" priority="71" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G342:P350">
+  <conditionalFormatting sqref="G361:P370">
     <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G351:P360">
+  <conditionalFormatting sqref="G362:P370">
     <cfRule type="cellIs" dxfId="68" priority="69" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G361:P370">
+  <conditionalFormatting sqref="G371:P380">
     <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G362:P370">
+  <conditionalFormatting sqref="G171">
     <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G371:P380">
+  <conditionalFormatting sqref="G172:J172">
     <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G171">
+  <conditionalFormatting sqref="G173:I173">
     <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G172:J172">
+  <conditionalFormatting sqref="G174:J174">
     <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G173:I173">
+  <conditionalFormatting sqref="G175:H175">
     <cfRule type="cellIs" dxfId="62" priority="63" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G174:J174">
+  <conditionalFormatting sqref="G176:L176">
     <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G175:H175">
+  <conditionalFormatting sqref="G177">
     <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G176:L176">
+  <conditionalFormatting sqref="G178:K178">
     <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G177">
+  <conditionalFormatting sqref="G179:H179">
     <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G178:K178">
+  <conditionalFormatting sqref="G180:K180">
     <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G179:H179">
+  <conditionalFormatting sqref="G181:I181">
     <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G180:K180">
+  <conditionalFormatting sqref="G181:I181">
     <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G181:I181">
+  <conditionalFormatting sqref="G182:I182">
     <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G181:I181">
+  <conditionalFormatting sqref="G182:I182">
     <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G182:I182">
+  <conditionalFormatting sqref="G183:L183">
     <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G182:I182">
+  <conditionalFormatting sqref="G183:L183">
     <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G183:L183">
+  <conditionalFormatting sqref="G184:I184">
     <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G183:L183">
+  <conditionalFormatting sqref="G184:I184">
     <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G184:I184">
+  <conditionalFormatting sqref="G185:H185">
     <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G184:I184">
+  <conditionalFormatting sqref="G185:H185">
     <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G185:H185">
+  <conditionalFormatting sqref="G186">
     <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G185:H185">
+  <conditionalFormatting sqref="G186">
     <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G186">
+  <conditionalFormatting sqref="G188">
     <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G186">
+  <conditionalFormatting sqref="G188">
     <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G188">
+  <conditionalFormatting sqref="G189:I189">
     <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G188">
+  <conditionalFormatting sqref="G189:I189">
     <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G189:I189">
+  <conditionalFormatting sqref="G190">
     <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G189:I189">
+  <conditionalFormatting sqref="G190">
     <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G190">
+  <conditionalFormatting sqref="G191:J191">
     <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G190">
+  <conditionalFormatting sqref="G192:K192">
     <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G191:J191">
+  <conditionalFormatting sqref="G193:G194">
     <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G192:K192">
+  <conditionalFormatting sqref="G195:J195">
     <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G193:G194">
+  <conditionalFormatting sqref="G196:I196">
     <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G195:J195">
+  <conditionalFormatting sqref="G197:I197">
     <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G196:I196">
+  <conditionalFormatting sqref="G198">
     <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G197:I197">
+  <conditionalFormatting sqref="G199:G200">
     <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G198">
+  <conditionalFormatting sqref="G201:K201">
     <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G199:G200">
+  <conditionalFormatting sqref="G201:K201">
     <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G201:K201">
+  <conditionalFormatting sqref="G202">
     <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G201:K201">
+  <conditionalFormatting sqref="G202">
     <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G202">
+  <conditionalFormatting sqref="G203">
     <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G202">
+  <conditionalFormatting sqref="G203">
     <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G203">
+  <conditionalFormatting sqref="G204:I204">
     <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G203">
+  <conditionalFormatting sqref="G204:I204">
     <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G204:I204">
+  <conditionalFormatting sqref="G205:H205">
     <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G204:I204">
+  <conditionalFormatting sqref="G205:H205">
     <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G205:H205">
+  <conditionalFormatting sqref="G206">
     <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G205:H205">
+  <conditionalFormatting sqref="G206">
     <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G206">
+  <conditionalFormatting sqref="G207:I207">
     <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G206">
+  <conditionalFormatting sqref="G207:I207">
     <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G207:I207">
+  <conditionalFormatting sqref="G208:I208">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G207:I207">
+  <conditionalFormatting sqref="G208:I208">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G208:I208">
+  <conditionalFormatting sqref="G209:H209">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G208:I208">
+  <conditionalFormatting sqref="G209:H209">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G209:H209">
+  <conditionalFormatting sqref="G210:I210">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G209:H209">
+  <conditionalFormatting sqref="G210:I210">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G210:I210">
+  <conditionalFormatting sqref="G211">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G210:I210">
+  <conditionalFormatting sqref="G212:K212">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G211">
+  <conditionalFormatting sqref="G213:I213">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G212:K212">
+  <conditionalFormatting sqref="G214">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G213:I213">
+  <conditionalFormatting sqref="G216:I216">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G214">
+  <conditionalFormatting sqref="G217">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G216:I216">
+  <conditionalFormatting sqref="G218:H218">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G217">
+  <conditionalFormatting sqref="G219">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G218:H218">
+  <conditionalFormatting sqref="G220">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G219">
+  <conditionalFormatting sqref="H203">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G220">
+  <conditionalFormatting sqref="H203">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
